--- a/data2019/belgian2019.xlsx
+++ b/data2019/belgian2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Year 5\COMP 4801 FYP\codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Year 5\COMP 4801 FYP\codes\data2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D86B31-7AFB-44D1-A84E-4D11EC5E47CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E1F27A-B1AA-4B8C-9844-810E4A3CEF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{25909279-3FED-49C2-85F2-F1BD41911B2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{25909279-3FED-49C2-85F2-F1BD41911B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="fastestlap" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="totallaptimes" sheetId="9" r:id="rId5"/>
     <sheet name="lapdelta" sheetId="10" r:id="rId6"/>
     <sheet name="lapsundercut" sheetId="11" r:id="rId7"/>
+    <sheet name="weather" sheetId="12" r:id="rId8"/>
+    <sheet name="altitude" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="104">
   <si>
     <t>Pos.</t>
   </si>
@@ -333,6 +335,48 @@
   <si>
     <t>delta_position</t>
   </si>
+  <si>
+    <t>tyre_before</t>
+  </si>
+  <si>
+    <t>tyre_after</t>
+  </si>
+  <si>
+    <t>Skycondition</t>
+  </si>
+  <si>
+    <t>Partly Cloudy</t>
+  </si>
+  <si>
+    <t>Precipation type</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>61.4°F</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Wind speed</t>
+  </si>
+  <si>
+    <t>7.86 mph</t>
+  </si>
+  <si>
+    <t>Wind bearing</t>
+  </si>
+  <si>
+    <t>329°</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
 </sst>
 </file>
 
@@ -371,11 +415,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7232,10 +7277,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18896F0-13FF-4F21-9D1E-CDC6EE342C8B}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G25"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7247,9 +7292,11 @@
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -7271,8 +7318,14 @@
       <c r="G1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -7294,8 +7347,14 @@
       <c r="G2">
         <v>27.62</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -7317,8 +7376,14 @@
       <c r="G3">
         <v>23.181999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -7340,8 +7405,14 @@
       <c r="G4">
         <v>22.863</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7363,8 +7434,14 @@
       <c r="G5">
         <v>22.786000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -7386,8 +7463,14 @@
       <c r="G6">
         <v>39.045999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -7409,8 +7492,14 @@
       <c r="G7">
         <v>25.004999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7432,8 +7521,14 @@
       <c r="G8">
         <v>26.890999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7455,8 +7550,14 @@
       <c r="G9">
         <v>22.911999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -7478,8 +7579,14 @@
       <c r="G10">
         <v>22.771999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -7501,8 +7608,14 @@
       <c r="G11">
         <v>23.132999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -7524,8 +7637,14 @@
       <c r="G12">
         <v>22.449000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -7547,8 +7666,14 @@
       <c r="G13">
         <v>22.774000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -7570,8 +7695,14 @@
       <c r="G14">
         <v>25.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -7593,8 +7724,14 @@
       <c r="G15">
         <v>22.584</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -7616,8 +7753,14 @@
       <c r="G16">
         <v>22.506</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>26</v>
       </c>
@@ -7639,8 +7782,14 @@
       <c r="G17">
         <v>22.834</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>27</v>
       </c>
@@ -7662,8 +7811,14 @@
       <c r="G18">
         <v>23.475000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>27</v>
       </c>
@@ -7685,8 +7840,14 @@
       <c r="G19">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>44</v>
       </c>
@@ -7708,8 +7869,14 @@
       <c r="G20">
         <v>23.497</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>55</v>
       </c>
@@ -7731,8 +7898,14 @@
       <c r="G21">
         <v>59.290999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>63</v>
       </c>
@@ -7754,8 +7927,14 @@
       <c r="G22">
         <v>22.442</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>77</v>
       </c>
@@ -7777,8 +7956,14 @@
       <c r="G23">
         <v>22.579000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>88</v>
       </c>
@@ -7800,8 +7985,14 @@
       <c r="G24">
         <v>24.247</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>99</v>
       </c>
@@ -7822,6 +8013,12 @@
       </c>
       <c r="G25">
         <v>23.044</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -16106,7 +16303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E51DD0-C3FC-45E6-97BF-28511A4B7C5C}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -16809,4 +17006,95 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69636B9-3C9A-4E7E-89EA-8C3ACE441ECF}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9210A6B4-E298-4D80-ADCC-D6880452412C}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1">
+        <v>102.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data2019/belgian2019.xlsx
+++ b/data2019/belgian2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Year 5\COMP 4801 FYP\codes\data2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E1F27A-B1AA-4B8C-9844-810E4A3CEF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60F41ED-155A-4F00-A326-E98F84B3A8A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{25909279-3FED-49C2-85F2-F1BD41911B2F}"/>
+    <workbookView xWindow="435" yWindow="1215" windowWidth="37245" windowHeight="12360" activeTab="11" xr2:uid="{25909279-3FED-49C2-85F2-F1BD41911B2F}"/>
   </bookViews>
   <sheets>
     <sheet name="fastestlap" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,10 @@
     <sheet name="lapsundercut" sheetId="11" r:id="rId7"/>
     <sheet name="weather" sheetId="12" r:id="rId8"/>
     <sheet name="altitude" sheetId="13" r:id="rId9"/>
+    <sheet name="finalstanding" sheetId="14" r:id="rId10"/>
+    <sheet name="compoundchange" sheetId="15" r:id="rId11"/>
+    <sheet name="sc" sheetId="17" r:id="rId12"/>
+    <sheet name="raceclassification" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="149">
   <si>
     <t>Pos.</t>
   </si>
@@ -377,16 +381,153 @@
   <si>
     <t>delta</t>
   </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>DNF</t>
+  </si>
+  <si>
+    <t>initial_pos</t>
+  </si>
+  <si>
+    <t>final_pos</t>
+  </si>
+  <si>
+    <t>no_of_pits</t>
+  </si>
+  <si>
+    <t>tyre_grid</t>
+  </si>
+  <si>
+    <t>tyre_1</t>
+  </si>
+  <si>
+    <t>tyre_2</t>
+  </si>
+  <si>
+    <t>tyre_grid_distance</t>
+  </si>
+  <si>
+    <t>tyre_1_distance</t>
+  </si>
+  <si>
+    <t>tyre_2_distance</t>
+  </si>
+  <si>
+    <t>final_pos_gained</t>
+  </si>
+  <si>
+    <t>final_points</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>Nat</t>
+  </si>
+  <si>
+    <t>Laps</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Kph</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>1 Lap</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Max Verstappen</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>2 Laps</t>
+  </si>
+  <si>
+    <t>total_time</t>
+  </si>
+  <si>
+    <t>sc_lap</t>
+  </si>
+  <si>
+    <t>sc_decision</t>
+  </si>
+  <si>
+    <t>sc_laps_travelled</t>
+  </si>
+  <si>
+    <t>sc_laps_remaining</t>
+  </si>
+  <si>
+    <t>sc_tyre_compound</t>
+  </si>
+  <si>
+    <t>before_pit_pos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm:ss.000"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss.000"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss.000"/>
+    <numFmt numFmtId="167" formatCode="h\.mm\.ss.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,16 +535,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -411,18 +576,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1198,6 +1399,3679 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDC67E2-5FFF-4B28-89F2-F5125320D0A0}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>77</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>63</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>88</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>99</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20">
+        <v>55</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00E2564-5650-4B0A-AA41-9B52BCD70931}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:X1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>MATCH(A2,lapchart!$B$2:$U$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A2,finalstanding!B:B,0))</f>
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(pitstop!A:A, A2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:E1))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:F1))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:E1)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:F1))),F2)</f>
+        <v>2</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2">IFERROR(IF(D2=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H2,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A2=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H2),"")</f>
+        <v>43</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2">IFERROR(IF(D2=1,0,IF(D2=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H2-I2,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A2=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H2-I2)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>IFERROR((C2-B2)*-1,"")</f>
+        <v>-4</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M21" si="0">IF(C2=1,25,IF(C2=2,18,IF(C2=3,15,IF(C2=4,12,IF(C2=5,10,IF(C2=6,8,IF(C2=7,6,IF(C2=8,4,IF(C2=9,2,IF(C2=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <f>VLOOKUP(A2,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A2,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A2,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A2,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9820208333333333E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f>MATCH(A3,lapchart!$B$2:$U$2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A3,finalstanding!B:B,0))</f>
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF(pitstop!A:A, A3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" ref="E3">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:E2))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:F2))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:E2)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:F2))),F3)</f>
+        <v>2</v>
+      </c>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>19</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" ref="I3">IFERROR(IF(D3=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H3,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A3=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H3),"")</f>
+        <v>25</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3">IFERROR(IF(D3=1,0,IF(D3=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H3-I3,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A3=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H3-I3)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L21" si="1">IFERROR((C3-B3)*-1,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <f>VLOOKUP(A3,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A3,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A3,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A3,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9036435185185185E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f>MATCH(A4,lapchart!$B$2:$U$2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A4,finalstanding!B:B,0))</f>
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIF(pitstop!A:A, A4)</f>
+        <v>2</v>
+      </c>
+      <c r="E4" cm="1">
+        <f t="array" ref="E4">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:E3))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:F3))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:E3)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:F3))),F4)</f>
+        <v>3</v>
+      </c>
+      <c r="H4" cm="1">
+        <f t="array" ref="H4">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>15</v>
+      </c>
+      <c r="I4" cm="1">
+        <f t="array" ref="I4">IFERROR(IF(D4=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H4,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A4=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H4),"")</f>
+        <v>18</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" ref="J4">IFERROR(IF(D4=1,0,IF(D4=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H4-I4,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A4=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H4-I4)),"")</f>
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N4" s="9">
+        <f>VLOOKUP(A4,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A4,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A4,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A4,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.8473749999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>MATCH(A5,lapchart!$B$2:$U$2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A5,finalstanding!B:B,0))</f>
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIF(pitstop!A:A, A5)</f>
+        <v>3</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" ref="E5">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:E4))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:F4))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:E4)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:F4))),F5)</f>
+        <v>2</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I5" cm="1">
+        <f t="array" ref="I5">IFERROR(IF(D5=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H5,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A5=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H5),"")</f>
+        <v>1</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" ref="J5">IFERROR(IF(D5=1,0,IF(D5=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H5-I5,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A5=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H5-I5)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <f>VLOOKUP(A5,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A5,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A5,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A5,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.0062812500000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <f>MATCH(A6,lapchart!$B$2:$U$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A6,finalstanding!B:B,0))</f>
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF(pitstop!A:A, A6)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" ref="E6">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:E5))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:F5))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:E5)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:F5))),F6)</f>
+        <v>2</v>
+      </c>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>16</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" ref="I6">IFERROR(IF(D6=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H6,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A6=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H6),"")</f>
+        <v>28</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">IFERROR(IF(D6=1,0,IF(D6=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H6-I6,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A6=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H6-I6)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <f>VLOOKUP(A6,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A6,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A6,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A6,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9715138888888887E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f>MATCH(A7,lapchart!$B$2:$U$2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A7,finalstanding!B:B,0))</f>
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF(pitstop!A:A, A7)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" ref="E7">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:E6))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:F6))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:E6)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:F6))),F7)</f>
+        <v>2</v>
+      </c>
+      <c r="H7" cm="1">
+        <f t="array" ref="H7">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>13</v>
+      </c>
+      <c r="I7" cm="1">
+        <f t="array" ref="I7">IFERROR(IF(D7=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H7,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A7=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H7),"")</f>
+        <v>31</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">IFERROR(IF(D7=1,0,IF(D7=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H7-I7,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A7=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H7-I7)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N7" s="9">
+        <f>VLOOKUP(A7,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A7,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A7,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A7,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9431458333333333E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <f>MATCH(A8,lapchart!$B$2:$U$2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A8,finalstanding!B:B,0))</f>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIF(pitstop!A:A, A8)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" cm="1">
+        <f t="array" ref="E8">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:E7))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:F7))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:E7)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:F7))),F8)</f>
+        <v>2</v>
+      </c>
+      <c r="H8" cm="1">
+        <f t="array" ref="H8">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>15</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8">IFERROR(IF(D8=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H8,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A8=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H8),"")</f>
+        <v>29</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">IFERROR(IF(D8=1,0,IF(D8=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H8-I8,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A8=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H8-I8)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="9">
+        <f>VLOOKUP(A8,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A8,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A8,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A8,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9145347222222221E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <f>MATCH(A9,lapchart!$B$2:$U$2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A9,finalstanding!B:B,0))</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIF(pitstop!A:A, A9)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" cm="1">
+        <f t="array" ref="E9">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:E8))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:F8))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:E8)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:F8))),F9)</f>
+        <v>2</v>
+      </c>
+      <c r="H9" cm="1">
+        <f t="array" ref="H9">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>21</v>
+      </c>
+      <c r="I9" cm="1">
+        <f t="array" ref="I9">IFERROR(IF(D9=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H9,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A9=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H9),"")</f>
+        <v>23</v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">IFERROR(IF(D9=1,0,IF(D9=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H9-I9,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A9=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H9-I9)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="N9" s="9">
+        <f>VLOOKUP(A9,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A9,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A9,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A9,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.8167939814814808E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <f>MATCH(A10,lapchart!$B$2:$U$2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A10,finalstanding!B:B,0))</f>
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIF(pitstop!A:A, A10)</f>
+        <v>2</v>
+      </c>
+      <c r="E10" cm="1">
+        <f t="array" ref="E10">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:E9))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:F9))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:E9)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:F9))),F10)</f>
+        <v>3</v>
+      </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>14</v>
+      </c>
+      <c r="I10" cm="1">
+        <f t="array" ref="I10">IFERROR(IF(D10=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H10,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A10=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H10),"")</f>
+        <v>16</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">IFERROR(IF(D10=1,0,IF(D10=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H10-I10,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A10=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H10-I10)),"")</f>
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="9">
+        <f>VLOOKUP(A10,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A10,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A10,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A10,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9439212962962958E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <f>MATCH(A11,lapchart!$B$2:$U$2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A11,finalstanding!B:B,0))</f>
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <f>COUNTIF(pitstop!A:A, A11)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" cm="1">
+        <f t="array" ref="E11">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:E10))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:F10))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:E10)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:F10))),F11)</f>
+        <v>2</v>
+      </c>
+      <c r="H11" cm="1">
+        <f t="array" ref="H11">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>25</v>
+      </c>
+      <c r="I11" cm="1">
+        <f t="array" ref="I11">IFERROR(IF(D11=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H11,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A11=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H11),"")</f>
+        <v>19</v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">IFERROR(IF(D11=1,0,IF(D11=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H11-I11,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A11=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H11-I11)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <f>VLOOKUP(A11,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A11,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A11,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A11,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9634375000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <f>MATCH(A12,lapchart!$B$2:$U$2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A12,finalstanding!B:B,0))</f>
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f>COUNTIF(pitstop!A:A, A12)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" cm="1">
+        <f t="array" ref="E12">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:E11))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:F11))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:E11)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:F11))),F12)</f>
+        <v>3</v>
+      </c>
+      <c r="H12" cm="1">
+        <f t="array" ref="H12">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>23</v>
+      </c>
+      <c r="I12" cm="1">
+        <f t="array" ref="I12">IFERROR(IF(D12=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H12,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A12=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H12),"")</f>
+        <v>21</v>
+      </c>
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">IFERROR(IF(D12=1,0,IF(D12=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H12-I12,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A12=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H12-I12)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N12" s="9">
+        <f>VLOOKUP(A12,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A12,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A12,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A12,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9109201388888886E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <f>MATCH(A13,lapchart!$B$2:$U$2,0)</f>
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A13,finalstanding!B:B,0))</f>
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <f>COUNTIF(pitstop!A:A, A13)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" cm="1">
+        <f t="array" ref="E13">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:E12))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:F12))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:E12)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:F12))),F13)</f>
+        <v>3</v>
+      </c>
+      <c r="H13" cm="1">
+        <f t="array" ref="H13">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>24</v>
+      </c>
+      <c r="I13" cm="1">
+        <f t="array" ref="I13">IFERROR(IF(D13=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H13,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A13=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H13),"")</f>
+        <v>20</v>
+      </c>
+      <c r="J13" cm="1">
+        <f t="array" ref="J13">IFERROR(IF(D13=1,0,IF(D13=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H13-I13,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A13=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H13-I13)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N13" s="9">
+        <f>VLOOKUP(A13,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A13,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A13,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A13,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9205636574074072E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <f>MATCH(A14,lapchart!$B$2:$U$2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A14,finalstanding!B:B,0))</f>
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <f>COUNTIF(pitstop!A:A, A14)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" cm="1">
+        <f t="array" ref="E14">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:E13))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:F13))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:E13)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:F13))),F14)</f>
+        <v>3</v>
+      </c>
+      <c r="H14" cm="1">
+        <f t="array" ref="H14">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>11</v>
+      </c>
+      <c r="I14" cm="1">
+        <f t="array" ref="I14">IFERROR(IF(D14=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H14,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A14=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H14),"")</f>
+        <v>20</v>
+      </c>
+      <c r="J14" cm="1">
+        <f t="array" ref="J14">IFERROR(IF(D14=1,0,IF(D14=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H14-I14,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A14=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H14-I14)),"")</f>
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N14" s="9">
+        <f>VLOOKUP(A14,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A14,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A14,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A14,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9402187500000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <f>MATCH(A15,lapchart!$B$2:$U$2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="C15" t="str">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A15,finalstanding!B:B,0))</f>
+        <v>DNF</v>
+      </c>
+      <c r="D15">
+        <f>COUNTIF(pitstop!A:A, A15)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="str" cm="1">
+        <f t="array" ref="E15">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:E14))),"")</f>
+        <v/>
+      </c>
+      <c r="F15" t="str" cm="1">
+        <f t="array" ref="F15">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:F14))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:E14)))),"")</f>
+        <v/>
+      </c>
+      <c r="G15" t="str" cm="1">
+        <f t="array" ref="G15">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:F14))),F15)</f>
+        <v/>
+      </c>
+      <c r="H15" t="str" cm="1">
+        <f t="array" ref="H15">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),1)),"")</f>
+        <v/>
+      </c>
+      <c r="I15" t="str" cm="1">
+        <f t="array" ref="I15">IFERROR(IF(D15=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H15,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A15=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H15),"")</f>
+        <v/>
+      </c>
+      <c r="J15" t="str" cm="1">
+        <f t="array" ref="J15">IFERROR(IF(D15=1,0,IF(D15=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H15-I15,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A15=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H15-I15)),"")</f>
+        <v/>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <f>VLOOKUP(A15,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A15,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A15,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A15,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <f>MATCH(A16,lapchart!$B$2:$U$2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A16,finalstanding!B:B,0))</f>
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f>COUNTIF(pitstop!A:A, A16)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" cm="1">
+        <f t="array" ref="E16">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:E15))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:F15))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:E15)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:F15))),F16)</f>
+        <v>2</v>
+      </c>
+      <c r="H16" cm="1">
+        <f t="array" ref="H16">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>22</v>
+      </c>
+      <c r="I16" cm="1">
+        <f t="array" ref="I16">IFERROR(IF(D16=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H16,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A16=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H16),"")</f>
+        <v>22</v>
+      </c>
+      <c r="J16" cm="1">
+        <f t="array" ref="J16">IFERROR(IF(D16=1,0,IF(D16=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H16-I16,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A16=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H16-I16)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N16" s="9">
+        <f>VLOOKUP(A16,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A16,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A16,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A16,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.8179293981481479E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <f>MATCH(A17,lapchart!$B$2:$U$2,0)</f>
+        <v>15</v>
+      </c>
+      <c r="C17" t="str">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A17,finalstanding!B:B,0))</f>
+        <v>DNF</v>
+      </c>
+      <c r="D17">
+        <f>COUNTIF(pitstop!A:A, A17)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" cm="1">
+        <f t="array" ref="E17">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:E16))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:F16))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:E16)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:F16))),F17)</f>
+        <v>3</v>
+      </c>
+      <c r="H17" cm="1">
+        <f t="array" ref="H17">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I17" cm="1">
+        <f t="array" ref="I17">IFERROR(IF(D17=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H17,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A17=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H17),"")</f>
+        <v>43</v>
+      </c>
+      <c r="J17" cm="1">
+        <f t="array" ref="J17">IFERROR(IF(D17=1,0,IF(D17=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H17-I17,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A17=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H17-I17)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <f>VLOOKUP(A17,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A17,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A17,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A17,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>2.2532638888888889E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>63</v>
+      </c>
+      <c r="B18">
+        <f>MATCH(A18,lapchart!$B$2:$U$2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A18,finalstanding!B:B,0))</f>
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <f>COUNTIF(pitstop!A:A, A18)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" cm="1">
+        <f t="array" ref="E18">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:E17))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:F17))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:E17)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:F17))),F18)</f>
+        <v>3</v>
+      </c>
+      <c r="H18" cm="1">
+        <f t="array" ref="H18">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>30</v>
+      </c>
+      <c r="I18" cm="1">
+        <f t="array" ref="I18">IFERROR(IF(D18=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H18,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A18=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H18),"")</f>
+        <v>14</v>
+      </c>
+      <c r="J18" cm="1">
+        <f t="array" ref="J18">IFERROR(IF(D18=1,0,IF(D18=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H18-I18,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A18=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H18-I18)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <f>VLOOKUP(A18,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A18,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A18,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A18,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9921909722222229E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>77</v>
+      </c>
+      <c r="B19">
+        <f>MATCH(A19,lapchart!$B$2:$U$2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A19,finalstanding!B:B,0))</f>
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <f>COUNTIF(pitstop!A:A, A19)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" cm="1">
+        <f t="array" ref="E19">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:E18))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:F18))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:E18)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:F18))),F19)</f>
+        <v>2</v>
+      </c>
+      <c r="H19" cm="1">
+        <f t="array" ref="H19">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>23</v>
+      </c>
+      <c r="I19" cm="1">
+        <f t="array" ref="I19">IFERROR(IF(D19=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H19,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A19=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H19),"")</f>
+        <v>21</v>
+      </c>
+      <c r="J19" cm="1">
+        <f t="array" ref="J19">IFERROR(IF(D19=1,0,IF(D19=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H19-I19,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A19=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H19-I19)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N19" s="9">
+        <f>VLOOKUP(A19,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A19,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A19,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A19,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.8313599537037041E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>88</v>
+      </c>
+      <c r="B20">
+        <f>MATCH(A20,lapchart!$B$2:$U$2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A20,finalstanding!B:B,0))</f>
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <f>COUNTIF(pitstop!A:A, A20)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" cm="1">
+        <f t="array" ref="E20">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),COLUMNS($E$1:E19))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),COLUMNS($E$1:F19))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),COLUMNS($E$1:E19)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),COLUMNS($E$1:F19))),F20)</f>
+        <v>3</v>
+      </c>
+      <c r="H20" cm="1">
+        <f t="array" ref="H20">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>31</v>
+      </c>
+      <c r="I20" cm="1">
+        <f t="array" ref="I20">IFERROR(IF(D20=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H20,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A20=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H20),"")</f>
+        <v>13</v>
+      </c>
+      <c r="J20" cm="1">
+        <f t="array" ref="J20">IFERROR(IF(D20=1,0,IF(D20=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H20-I20,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A20=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H20-I20)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <f>VLOOKUP(A20,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A20,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A20,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A20,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.0115289351851849E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>99</v>
+      </c>
+      <c r="B21">
+        <f>MATCH(A21,lapchart!$B$2:$U$2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A21,finalstanding!B:B,0))</f>
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <f>COUNTIF(pitstop!A:A, A21)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" cm="1">
+        <f t="array" ref="E21">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),COLUMNS($E$1:E20))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),COLUMNS($E$1:F20))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),COLUMNS($E$1:E20)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),COLUMNS($E$1:F20))),F21)</f>
+        <v>3</v>
+      </c>
+      <c r="H21" cm="1">
+        <f t="array" ref="H21">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>29</v>
+      </c>
+      <c r="I21" cm="1">
+        <f t="array" ref="I21">IFERROR(IF(D21=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H21,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A21=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H21),"")</f>
+        <v>15</v>
+      </c>
+      <c r="J21" cm="1">
+        <f t="array" ref="J21">IFERROR(IF(D21=1,0,IF(D21=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H21-I21,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A21=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H21-I21)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <f>VLOOKUP(A21,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A21,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A21,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A21,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.0912002314814813E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9240DA-DB9F-4DF8-859D-AA6734479FE5}">
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>MATCH(A2,lapchart!$B$2:$U$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A2,finalstanding!B:B,0))</f>
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(pitstop!A:A, A2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:E1))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:F1))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:E1)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:F1))),F2)</f>
+        <v>2</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2">IFERROR(IF(D2=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H2,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A2=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H2),"")</f>
+        <v>43</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2">IFERROR(IF(D2=1,0,IF(D2=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H2-I2,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A2=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H2-I2)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>IFERROR((C2-B2)*-1,"")</f>
+        <v>-4</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M19" si="0">IF(C2=1,25,IF(C2=2,18,IF(C2=3,15,IF(C2=4,12,IF(C2=5,10,IF(C2=6,8,IF(C2=7,6,IF(C2=8,4,IF(C2=9,2,IF(C2=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <f>VLOOKUP(A2,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A2,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A2,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A2,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9820208333333333E-2</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q19" si="1">IF(H2=O2,O2,IF(H2+I2=O2,I2,IF(H2&gt;O2,H2-O2,IF(H2+I2&gt;O2,O2-H2,IF(H2+I2+J2&gt;O2,O2-H2-I2,"")))))</f>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f>COUNTA(lapchart!A:A)-2-O2</f>
+        <v>43</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:S19" si="2">IF(H2&gt;=O2,E2,IF(H2+I2&gt;=O2,F2,IF(H2+I2+J2&gt;=O2,G2)))</f>
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A2,INDIRECT("lapchart!B"&amp;O2+2&amp;":U" &amp; O2+2),0)),"")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f>MATCH(A3,lapchart!$B$2:$U$2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A3,finalstanding!B:B,0))</f>
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF(pitstop!A:A, A3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" ref="E3">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:E2))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:F2))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:E2)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:F2))),F3)</f>
+        <v>2</v>
+      </c>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>19</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" ref="I3">IFERROR(IF(D3=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H3,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A3=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H3),"")</f>
+        <v>25</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3">IFERROR(IF(D3=1,0,IF(D3=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H3-I3,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A3=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H3-I3)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L19" si="3">IFERROR((C3-B3)*-1,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <f>VLOOKUP(A3,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A3,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A3,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A3,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9036435185185185E-2</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="R3">
+        <f>COUNTA(lapchart!A:A)-2-O3</f>
+        <v>43</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A3,INDIRECT("lapchart!B"&amp;O3+2&amp;":U" &amp; O3+2),0)),"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f>MATCH(A4,lapchart!$B$2:$U$2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A4,finalstanding!B:B,0))</f>
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIF(pitstop!A:A, A4)</f>
+        <v>2</v>
+      </c>
+      <c r="E4" cm="1">
+        <f t="array" ref="E4">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:E3))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:F3))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:E3)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:F3))),F4)</f>
+        <v>3</v>
+      </c>
+      <c r="H4" cm="1">
+        <f t="array" ref="H4">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>15</v>
+      </c>
+      <c r="I4" cm="1">
+        <f t="array" ref="I4">IFERROR(IF(D4=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H4,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A4=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H4),"")</f>
+        <v>18</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" ref="J4">IFERROR(IF(D4=1,0,IF(D4=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H4-I4,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A4=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H4-I4)),"")</f>
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N4" s="9">
+        <f>VLOOKUP(A4,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A4,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A4,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A4,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.8473749999999998E-2</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="R4">
+        <f>COUNTA(lapchart!A:A)-2-O4</f>
+        <v>43</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A4,INDIRECT("lapchart!B"&amp;O4+2&amp;":U" &amp; O4+2),0)),"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>MATCH(A5,lapchart!$B$2:$U$2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A5,finalstanding!B:B,0))</f>
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIF(pitstop!A:A, A5)</f>
+        <v>3</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" ref="E5">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:E4))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:F4))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:E4)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:F4))),F5)</f>
+        <v>2</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I5" cm="1">
+        <f t="array" ref="I5">IFERROR(IF(D5=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H5,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A5=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H5),"")</f>
+        <v>1</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" ref="J5">IFERROR(IF(D5=1,0,IF(D5=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H5-I5,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A5=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H5-I5)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <f>VLOOKUP(A5,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A5,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A5,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A5,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.0062812500000007E-2</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f>COUNTA(lapchart!A:A)-2-O5</f>
+        <v>43</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A5,INDIRECT("lapchart!B"&amp;O5+2&amp;":U" &amp; O5+2),0)),"")</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <f>MATCH(A6,lapchart!$B$2:$U$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A6,finalstanding!B:B,0))</f>
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF(pitstop!A:A, A6)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" ref="E6">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:E5))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:F5))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:E5)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:F5))),F6)</f>
+        <v>2</v>
+      </c>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>16</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" ref="I6">IFERROR(IF(D6=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H6,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A6=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H6),"")</f>
+        <v>28</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">IFERROR(IF(D6=1,0,IF(D6=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H6-I6,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A6=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H6-I6)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <f>VLOOKUP(A6,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A6,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A6,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A6,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9715138888888887E-2</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R6">
+        <f>COUNTA(lapchart!A:A)-2-O6</f>
+        <v>43</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A6,INDIRECT("lapchart!B"&amp;O6+2&amp;":U" &amp; O6+2),0)),"")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f>MATCH(A7,lapchart!$B$2:$U$2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A7,finalstanding!B:B,0))</f>
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF(pitstop!A:A, A7)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" ref="E7">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:E6))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:F6))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:E6)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:F6))),F7)</f>
+        <v>2</v>
+      </c>
+      <c r="H7" cm="1">
+        <f t="array" ref="H7">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>13</v>
+      </c>
+      <c r="I7" cm="1">
+        <f t="array" ref="I7">IFERROR(IF(D7=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H7,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A7=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H7),"")</f>
+        <v>31</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">IFERROR(IF(D7=1,0,IF(D7=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H7-I7,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A7=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H7-I7)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N7" s="9">
+        <f>VLOOKUP(A7,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A7,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A7,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A7,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9431458333333333E-2</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="R7">
+        <f>COUNTA(lapchart!A:A)-2-O7</f>
+        <v>43</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A7,INDIRECT("lapchart!B"&amp;O7+2&amp;":U" &amp; O7+2),0)),"")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <f>MATCH(A8,lapchart!$B$2:$U$2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A8,finalstanding!B:B,0))</f>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIF(pitstop!A:A, A8)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" cm="1">
+        <f t="array" ref="E8">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:E7))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:F7))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:E7)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:F7))),F8)</f>
+        <v>2</v>
+      </c>
+      <c r="H8" cm="1">
+        <f t="array" ref="H8">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>15</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8">IFERROR(IF(D8=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H8,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A8=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H8),"")</f>
+        <v>29</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">IFERROR(IF(D8=1,0,IF(D8=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H8-I8,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A8=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H8-I8)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="9">
+        <f>VLOOKUP(A8,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A8,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A8,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A8,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9145347222222221E-2</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="R8">
+        <f>COUNTA(lapchart!A:A)-2-O8</f>
+        <v>43</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A8,INDIRECT("lapchart!B"&amp;O8+2&amp;":U" &amp; O8+2),0)),"")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <f>MATCH(A9,lapchart!$B$2:$U$2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A9,finalstanding!B:B,0))</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIF(pitstop!A:A, A9)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" cm="1">
+        <f t="array" ref="E9">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:E8))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:F8))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:E8)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:F8))),F9)</f>
+        <v>2</v>
+      </c>
+      <c r="H9" cm="1">
+        <f t="array" ref="H9">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>21</v>
+      </c>
+      <c r="I9" cm="1">
+        <f t="array" ref="I9">IFERROR(IF(D9=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H9,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A9=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H9),"")</f>
+        <v>23</v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">IFERROR(IF(D9=1,0,IF(D9=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H9-I9,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A9=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H9-I9)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="N9" s="9">
+        <f>VLOOKUP(A9,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A9,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A9,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A9,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.8167939814814808E-2</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="R9">
+        <f>COUNTA(lapchart!A:A)-2-O9</f>
+        <v>43</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A9,INDIRECT("lapchart!B"&amp;O9+2&amp;":U" &amp; O9+2),0)),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <f>MATCH(A10,lapchart!$B$2:$U$2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A10,finalstanding!B:B,0))</f>
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIF(pitstop!A:A, A10)</f>
+        <v>2</v>
+      </c>
+      <c r="E10" cm="1">
+        <f t="array" ref="E10">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:E9))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:F9))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:E9)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:F9))),F10)</f>
+        <v>3</v>
+      </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>14</v>
+      </c>
+      <c r="I10" cm="1">
+        <f t="array" ref="I10">IFERROR(IF(D10=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H10,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A10=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H10),"")</f>
+        <v>16</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">IFERROR(IF(D10=1,0,IF(D10=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H10-I10,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A10=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H10-I10)),"")</f>
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="9">
+        <f>VLOOKUP(A10,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A10,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A10,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A10,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9439212962962958E-2</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="R10">
+        <f>COUNTA(lapchart!A:A)-2-O10</f>
+        <v>43</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A10,INDIRECT("lapchart!B"&amp;O10+2&amp;":U" &amp; O10+2),0)),"")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <f>MATCH(A11,lapchart!$B$2:$U$2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A11,finalstanding!B:B,0))</f>
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <f>COUNTIF(pitstop!A:A, A11)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" cm="1">
+        <f t="array" ref="E11">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:E10))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:F10))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:E10)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:F10))),F11)</f>
+        <v>2</v>
+      </c>
+      <c r="H11" cm="1">
+        <f t="array" ref="H11">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>25</v>
+      </c>
+      <c r="I11" cm="1">
+        <f t="array" ref="I11">IFERROR(IF(D11=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H11,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A11=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H11),"")</f>
+        <v>19</v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">IFERROR(IF(D11=1,0,IF(D11=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H11-I11,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A11=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H11-I11)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <f>VLOOKUP(A11,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A11,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A11,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A11,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9634375000000003E-2</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R11">
+        <f>COUNTA(lapchart!A:A)-2-O11</f>
+        <v>43</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A11,INDIRECT("lapchart!B"&amp;O11+2&amp;":U" &amp; O11+2),0)),"")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <f>MATCH(A12,lapchart!$B$2:$U$2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A12,finalstanding!B:B,0))</f>
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f>COUNTIF(pitstop!A:A, A12)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" cm="1">
+        <f t="array" ref="E12">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:E11))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:F11))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:E11)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:F11))),F12)</f>
+        <v>3</v>
+      </c>
+      <c r="H12" cm="1">
+        <f t="array" ref="H12">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>23</v>
+      </c>
+      <c r="I12" cm="1">
+        <f t="array" ref="I12">IFERROR(IF(D12=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H12,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A12=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H12),"")</f>
+        <v>21</v>
+      </c>
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">IFERROR(IF(D12=1,0,IF(D12=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H12-I12,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A12=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H12-I12)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N12" s="9">
+        <f>VLOOKUP(A12,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A12,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A12,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A12,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9109201388888886E-2</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="R12">
+        <f>COUNTA(lapchart!A:A)-2-O12</f>
+        <v>43</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A12,INDIRECT("lapchart!B"&amp;O12+2&amp;":U" &amp; O12+2),0)),"")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <f>MATCH(A13,lapchart!$B$2:$U$2,0)</f>
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A13,finalstanding!B:B,0))</f>
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <f>COUNTIF(pitstop!A:A, A13)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" cm="1">
+        <f t="array" ref="E13">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:E12))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:F12))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:E12)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:F12))),F13)</f>
+        <v>3</v>
+      </c>
+      <c r="H13" cm="1">
+        <f t="array" ref="H13">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>24</v>
+      </c>
+      <c r="I13" cm="1">
+        <f t="array" ref="I13">IFERROR(IF(D13=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H13,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A13=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H13),"")</f>
+        <v>20</v>
+      </c>
+      <c r="J13" cm="1">
+        <f t="array" ref="J13">IFERROR(IF(D13=1,0,IF(D13=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H13-I13,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A13=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H13-I13)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N13" s="9">
+        <f>VLOOKUP(A13,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A13,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A13,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A13,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9205636574074072E-2</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="R13">
+        <f>COUNTA(lapchart!A:A)-2-O13</f>
+        <v>43</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A13,INDIRECT("lapchart!B"&amp;O13+2&amp;":U" &amp; O13+2),0)),"")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <f>MATCH(A14,lapchart!$B$2:$U$2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A14,finalstanding!B:B,0))</f>
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <f>COUNTIF(pitstop!A:A, A14)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" cm="1">
+        <f t="array" ref="E14">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:E13))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:F13))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:E13)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:F13))),F14)</f>
+        <v>3</v>
+      </c>
+      <c r="H14" cm="1">
+        <f t="array" ref="H14">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>11</v>
+      </c>
+      <c r="I14" cm="1">
+        <f t="array" ref="I14">IFERROR(IF(D14=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H14,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A14=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H14),"")</f>
+        <v>20</v>
+      </c>
+      <c r="J14" cm="1">
+        <f t="array" ref="J14">IFERROR(IF(D14=1,0,IF(D14=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H14-I14,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A14=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H14-I14)),"")</f>
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N14" s="9">
+        <f>VLOOKUP(A14,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A14,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A14,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A14,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9402187500000002E-2</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <f>COUNTA(lapchart!A:A)-2-O14</f>
+        <v>43</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A14,INDIRECT("lapchart!B"&amp;O14+2&amp;":U" &amp; O14+2),0)),"")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <f>MATCH(A15,lapchart!$B$2:$U$2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A15,finalstanding!B:B,0))</f>
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f>COUNTIF(pitstop!A:A, A15)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" cm="1">
+        <f t="array" ref="E15">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:E14))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:F14))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:E14)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:F14))),F15)</f>
+        <v>2</v>
+      </c>
+      <c r="H15" cm="1">
+        <f t="array" ref="H15">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>22</v>
+      </c>
+      <c r="I15" cm="1">
+        <f t="array" ref="I15">IFERROR(IF(D15=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H15,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A15=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H15),"")</f>
+        <v>22</v>
+      </c>
+      <c r="J15" cm="1">
+        <f t="array" ref="J15">IFERROR(IF(D15=1,0,IF(D15=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H15-I15,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A15=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H15-I15)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N15" s="9">
+        <f>VLOOKUP(A15,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A15,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A15,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A15,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.8179293981481479E-2</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="R15">
+        <f>COUNTA(lapchart!A:A)-2-O15</f>
+        <v>43</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A15,INDIRECT("lapchart!B"&amp;O15+2&amp;":U" &amp; O15+2),0)),"")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>63</v>
+      </c>
+      <c r="B16">
+        <f>MATCH(A16,lapchart!$B$2:$U$2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A16,finalstanding!B:B,0))</f>
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f>COUNTIF(pitstop!A:A, A16)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" cm="1">
+        <f t="array" ref="E16">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:E15))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:F15))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:E15)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:F15))),F16)</f>
+        <v>3</v>
+      </c>
+      <c r="H16" cm="1">
+        <f t="array" ref="H16">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>30</v>
+      </c>
+      <c r="I16" cm="1">
+        <f t="array" ref="I16">IFERROR(IF(D16=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H16,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A16=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H16),"")</f>
+        <v>14</v>
+      </c>
+      <c r="J16" cm="1">
+        <f t="array" ref="J16">IFERROR(IF(D16=1,0,IF(D16=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H16-I16,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A16=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H16-I16)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <f>VLOOKUP(A16,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A16,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A16,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A16,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9921909722222229E-2</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="R16">
+        <f>COUNTA(lapchart!A:A)-2-O16</f>
+        <v>43</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A16,INDIRECT("lapchart!B"&amp;O16+2&amp;":U" &amp; O16+2),0)),"")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>77</v>
+      </c>
+      <c r="B17">
+        <f>MATCH(A17,lapchart!$B$2:$U$2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A17,finalstanding!B:B,0))</f>
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f>COUNTIF(pitstop!A:A, A17)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" cm="1">
+        <f t="array" ref="E17">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:E16))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:F16))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:E16)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:F16))),F17)</f>
+        <v>2</v>
+      </c>
+      <c r="H17" cm="1">
+        <f t="array" ref="H17">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>23</v>
+      </c>
+      <c r="I17" cm="1">
+        <f t="array" ref="I17">IFERROR(IF(D17=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H17,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A17=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H17),"")</f>
+        <v>21</v>
+      </c>
+      <c r="J17" cm="1">
+        <f t="array" ref="J17">IFERROR(IF(D17=1,0,IF(D17=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H17-I17,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A17=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H17-I17)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N17" s="9">
+        <f>VLOOKUP(A17,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A17,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A17,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A17,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.8313599537037041E-2</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="R17">
+        <f>COUNTA(lapchart!A:A)-2-O17</f>
+        <v>43</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A17,INDIRECT("lapchart!B"&amp;O17+2&amp;":U" &amp; O17+2),0)),"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>88</v>
+      </c>
+      <c r="B18">
+        <f>MATCH(A18,lapchart!$B$2:$U$2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A18,finalstanding!B:B,0))</f>
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <f>COUNTIF(pitstop!A:A, A18)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" cm="1">
+        <f t="array" ref="E18">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:E17))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:F17))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:E17)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:F17))),F18)</f>
+        <v>3</v>
+      </c>
+      <c r="H18" cm="1">
+        <f t="array" ref="H18">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>31</v>
+      </c>
+      <c r="I18" cm="1">
+        <f t="array" ref="I18">IFERROR(IF(D18=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H18,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A18=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H18),"")</f>
+        <v>13</v>
+      </c>
+      <c r="J18" cm="1">
+        <f t="array" ref="J18">IFERROR(IF(D18=1,0,IF(D18=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H18-I18,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A18=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H18-I18)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <f>VLOOKUP(A18,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A18,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A18,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A18,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.0115289351851849E-2</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="R18">
+        <f>COUNTA(lapchart!A:A)-2-O18</f>
+        <v>43</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A18,INDIRECT("lapchart!B"&amp;O18+2&amp;":U" &amp; O18+2),0)),"")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>99</v>
+      </c>
+      <c r="B19">
+        <f>MATCH(A19,lapchart!$B$2:$U$2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <f>INDEX(finalstanding!A:A,MATCH(sc!A19,finalstanding!B:B,0))</f>
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <f>COUNTIF(pitstop!A:A, A19)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" cm="1">
+        <f t="array" ref="E19">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:E18))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:F18))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:E18)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:F18))),F19)</f>
+        <v>3</v>
+      </c>
+      <c r="H19" cm="1">
+        <f t="array" ref="H19">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>29</v>
+      </c>
+      <c r="I19" cm="1">
+        <f t="array" ref="I19">IFERROR(IF(D19=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H19,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A19=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H19),"")</f>
+        <v>15</v>
+      </c>
+      <c r="J19" cm="1">
+        <f t="array" ref="J19">IFERROR(IF(D19=1,0,IF(D19=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H19-I19,INDEX(pitstop!$D$2:$D$100,SMALL(IF(sc!$A19=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H19-I19)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <f>VLOOKUP(A19,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A19,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A19,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A19,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.0912002314814813E-2</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="R19">
+        <f>COUNTA(lapchart!A:A)-2-O19</f>
+        <v>43</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <f ca="1">IFERROR(INDEX(lapchart!$B$1:$U$1, MATCH(A19,INDIRECT("lapchart!B"&amp;O19+2&amp;":U" &amp; O19+2),0)),"")</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D3CE9D-BD43-44EA-BEA1-10D019ADF6ED}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5.8167939814814808E-2</v>
+      </c>
+      <c r="J2">
+        <v>220.66200000000001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.234537037037037E-3</v>
+      </c>
+      <c r="L2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.8179293981481479E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J3">
+        <v>220.619</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.2335648148148147E-3</v>
+      </c>
+      <c r="L3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.8313599537037041E-2</v>
+      </c>
+      <c r="H4">
+        <v>12.585000000000001</v>
+      </c>
+      <c r="I4">
+        <v>11.603999999999999</v>
+      </c>
+      <c r="J4">
+        <v>220.11099999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.2322337962962964E-3</v>
+      </c>
+      <c r="L4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.8473749999999998E-2</v>
+      </c>
+      <c r="H5">
+        <v>26.422000000000001</v>
+      </c>
+      <c r="I5">
+        <v>13.837</v>
+      </c>
+      <c r="J5">
+        <v>219.50800000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.2315856481481481E-3</v>
+      </c>
+      <c r="L5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.9109201388888886E-2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>54.902999999999999</v>
+      </c>
+      <c r="J6">
+        <v>217.148</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.2442939814814814E-3</v>
+      </c>
+      <c r="L6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.9145347222222221E-2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>3.1230000000000002</v>
+      </c>
+      <c r="J7">
+        <v>217.01599999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.2590393518518517E-3</v>
+      </c>
+      <c r="L7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5.9205636574074072E-2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>5.2089999999999996</v>
+      </c>
+      <c r="J8">
+        <v>216.79499999999999</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.2516550925925926E-3</v>
+      </c>
+      <c r="L8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9">
+        <v>44</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5.9402187500000002E-2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>16.981999999999999</v>
+      </c>
+      <c r="J9">
+        <v>216.077</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.2540393518518519E-3</v>
+      </c>
+      <c r="L9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>44</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.9431458333333333E-2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2.5289999999999999</v>
+      </c>
+      <c r="J10">
+        <v>215.971</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.269675925925926E-3</v>
+      </c>
+      <c r="L10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5.9439212962962958E-2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.67</v>
+      </c>
+      <c r="J11">
+        <v>215.94300000000001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.2541319444444444E-3</v>
+      </c>
+      <c r="L11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.7647546296296294E-2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12">
+        <v>217.59200000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.2537152777777779E-3</v>
+      </c>
+      <c r="L12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13">
+        <v>43</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5.8245486111111112E-2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13">
+        <v>51.661999999999999</v>
+      </c>
+      <c r="J13">
+        <v>215.358</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.2578356481481481E-3</v>
+      </c>
+      <c r="L13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5.8326249999999996E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14">
+        <v>6.9779999999999998</v>
+      </c>
+      <c r="J14">
+        <v>215.06</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.2647453703703703E-3</v>
+      </c>
+      <c r="L14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5.8431319444444442E-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15">
+        <v>9.0779999999999994</v>
+      </c>
+      <c r="J15">
+        <v>214.673</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1.2783680555555556E-3</v>
+      </c>
+      <c r="L15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>43</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5.8533020833333338E-2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16">
+        <v>8.7870000000000008</v>
+      </c>
+      <c r="J16">
+        <v>214.3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.2599537037037037E-3</v>
+      </c>
+      <c r="L16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17">
+        <v>43</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5.8673923611111116E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17">
+        <v>12.173999999999999</v>
+      </c>
+      <c r="J17">
+        <v>213.786</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1.2587152777777777E-3</v>
+      </c>
+      <c r="L17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18">
+        <v>43</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5.8726400462962958E-2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18">
+        <v>4.5339999999999998</v>
+      </c>
+      <c r="J18">
+        <v>213.595</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.2641203703703705E-3</v>
+      </c>
+      <c r="L18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5.6745335648148147E-2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19">
+        <v>215.90899999999999</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.2449074074074075E-3</v>
+      </c>
+      <c r="L19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.2532638888888889E-3</v>
+      </c>
+      <c r="J20">
+        <v>127.22199999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F0C22B-C035-46D0-BF18-D4B9460A3AFE}">
   <dimension ref="A1:U46"/>
@@ -17080,7 +20954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9210A6B4-E298-4D80-ADCC-D6880452412C}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
